--- a/excel_files/it.xlsx
+++ b/excel_files/it.xlsx
@@ -254,7 +254,7 @@
     <t>department</t>
   </si>
   <si>
-    <t>requirement</t>
+    <t>major_requirement</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -613,7 +613,7 @@
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
   </cols>
   <sheetData>
